--- a/NFLData-2024.xlsx
+++ b/NFLData-2024.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="24600" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="24600" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Divisions" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meta" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -72,10 +73,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -425,8 +429,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -457,7 +461,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>nwe</t>
+          <t>NWE</t>
         </is>
       </c>
     </row>
@@ -482,11 +486,6 @@
           <t>East</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nyj</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,11 +508,6 @@
           <t>East</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>buf</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,11 +530,6 @@
           <t>East</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>mia</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -563,11 +552,6 @@
           <t>North</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>cin</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -590,11 +574,6 @@
           <t>North</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>pit</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -619,7 +598,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>rav</t>
+          <t>RAV</t>
         </is>
       </c>
     </row>
@@ -644,11 +623,6 @@
           <t>North</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>cle</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -673,7 +647,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>hts</t>
+          <t>HTX</t>
         </is>
       </c>
     </row>
@@ -700,7 +674,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>clt</t>
+          <t>CLT</t>
         </is>
       </c>
     </row>
@@ -725,11 +699,6 @@
           <t>South</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>jax</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -754,7 +723,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>oti</t>
+          <t>OTI</t>
         </is>
       </c>
     </row>
@@ -779,11 +748,6 @@
           <t>West</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>den</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -808,7 +772,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>kan</t>
+          <t>KAN</t>
         </is>
       </c>
     </row>
@@ -835,7 +799,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>rai</t>
+          <t>RAI</t>
         </is>
       </c>
     </row>
@@ -862,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sdg</t>
+          <t>SDG</t>
         </is>
       </c>
     </row>
@@ -887,11 +851,6 @@
           <t>East</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>was</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -914,11 +873,6 @@
           <t>East</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>phi</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -941,11 +895,6 @@
           <t>East</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>nyg</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -968,11 +917,6 @@
           <t>East</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>dal</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -997,7 +941,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gnb</t>
+          <t>GNB</t>
         </is>
       </c>
     </row>
@@ -1022,11 +966,6 @@
           <t>North</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1049,11 +988,6 @@
           <t>North</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>det</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1076,11 +1010,6 @@
           <t>North</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>chi</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1103,11 +1032,6 @@
           <t>South</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>car</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1130,11 +1054,6 @@
           <t>South</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>atl</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1159,7 +1078,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>tam</t>
+          <t>TAM</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1105,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>nor</t>
+          <t>NOR</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1132,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>crd</t>
+          <t>CRD</t>
         </is>
       </c>
     </row>
@@ -1238,11 +1157,6 @@
           <t>West</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>sea</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1267,7 +1181,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ram</t>
+          <t>RAM</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1208,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sfo</t>
+          <t>SFO</t>
         </is>
       </c>
     </row>
@@ -1309,18 +1223,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="10.83203125" customWidth="1" style="1" min="1" max="1"/>
     <col width="18.5" customWidth="1" style="1" min="2" max="6"/>
-    <col width="10.83203125" customWidth="1" style="1" min="7" max="11"/>
-    <col width="10.83203125" customWidth="1" style="1" min="12" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="1" min="7" max="14"/>
+    <col width="10.83203125" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1351,7 +1265,7 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>GAME_DATE</t>
+          <t>GAMETIME</t>
         </is>
       </c>
     </row>
@@ -1375,8 +1289,13 @@
       <c r="E2" t="n">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>45540.84722222222</v>
+      <c r="F2" s="5" t="n">
+        <v>45540.86111111111</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>401671789</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1399,8 +1318,13 @@
       <c r="E3" t="n">
         <v>34</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>45541.84375</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>401671805</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1409,22 +1333,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>45543.54166666666</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>401671744</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1433,22 +1362,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>45543.54166666666</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>401671617</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1457,22 +1391,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="n">
         <v>45543.54166666666</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>401671719</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1481,22 +1420,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="n">
         <v>45543.54166666666</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>401671628</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1505,22 +1449,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5" t="n">
         <v>45543.54166666666</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>401671861</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1529,22 +1478,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="n">
         <v>45543.54166666666</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>401671849</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1553,22 +1507,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>45543.54166666666</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>401671734</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1577,7 +1536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1585,14 +1544,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>45543.54166666666</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>401671712</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1601,22 +1565,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="n">
         <v>45543.67013888889</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>401671659</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1625,22 +1594,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="n">
         <v>45543.67013888889</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>401671664</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1663,8 +1637,13 @@
       <c r="E14" t="n">
         <v>17</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>45543.68402777778</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>401671761</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1687,8 +1666,13 @@
       <c r="E15" t="n">
         <v>37</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>45543.68402777778</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>401671770</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1711,8 +1695,13 @@
       <c r="E16" t="n">
         <v>26</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>45543.84722222222</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>401671792</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1735,8 +1724,13 @@
       <c r="E17" t="n">
         <v>32</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>45544.84375</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>401671696</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1759,8 +1753,13 @@
       <c r="E18" t="n">
         <v>10</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>45547.84375</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>401671807</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1769,22 +1768,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
-      </c>
-      <c r="F19" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>401671709</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1793,22 +1797,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>16</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>401671721</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1817,22 +1826,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19</v>
-      </c>
-      <c r="F21" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>401671723</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1841,22 +1855,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>401671636</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1865,22 +1884,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>23</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>401671645</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1889,22 +1913,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
-      </c>
-      <c r="F24" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>401671702</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1913,22 +1942,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
-      </c>
-      <c r="F25" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>401671716</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1951,8 +1985,13 @@
       <c r="E26" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>401671652</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1961,22 +2000,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
-      </c>
-      <c r="F27" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>401671635</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1985,22 +2029,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>21</v>
-      </c>
-      <c r="F28" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="F28" s="5" t="n">
         <v>45550.54166666666</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>401671624</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2023,8 +2072,13 @@
       <c r="E29" t="n">
         <v>41</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="5" t="n">
         <v>45550.67013888889</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>401671754</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2033,22 +2087,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
-      </c>
-      <c r="F30" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" s="5" t="n">
         <v>45550.68402777778</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>401671668</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2057,22 +2116,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="F31" s="5" t="n">
         <v>45550.68402777778</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>401671670</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2095,8 +2159,13 @@
       <c r="E32" t="n">
         <v>19</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="5" t="n">
         <v>45550.84722222222</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>401671786</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2119,8 +2188,13 @@
       <c r="E33" t="n">
         <v>21</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="5" t="n">
         <v>45551.84375</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>401671691</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2143,8 +2217,13 @@
       <c r="E34" t="n">
         <v>24</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="5" t="n">
         <v>45554.84375</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>401671808</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2153,22 +2232,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>14</v>
-      </c>
-      <c r="F35" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" s="5" t="n">
         <v>45557.54166666666</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>401671855</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2177,22 +2261,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>34</v>
-      </c>
-      <c r="F36" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F36" s="5" t="n">
         <v>45557.54166666666</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>401671823</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2201,22 +2290,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20</v>
-      </c>
-      <c r="F37" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F37" s="5" t="n">
         <v>45557.54166666666</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>401671865</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2225,22 +2319,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="F38" s="5" t="n">
         <v>45557.54166666666</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>401671646</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2249,22 +2348,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>21</v>
-      </c>
-      <c r="F39" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" s="5" t="n">
         <v>45557.54166666666</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>401671736</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2273,22 +2377,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
-      </c>
-      <c r="F40" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F40" s="5" t="n">
         <v>45557.54166666666</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>401671632</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2297,22 +2406,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
-      </c>
-      <c r="F41" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" s="5" t="n">
         <v>45557.54166666666</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>401671741</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2321,22 +2435,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>24</v>
-      </c>
-      <c r="F42" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F42" s="5" t="n">
         <v>45557.67013888889</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>401671658</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2345,22 +2464,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22</v>
-      </c>
-      <c r="F43" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="F43" s="5" t="n">
         <v>45557.67013888889</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>401671662</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2369,22 +2493,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27</v>
-      </c>
-      <c r="F44" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F44" s="5" t="n">
         <v>45557.68402777778</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>401671763</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2393,22 +2522,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
-      </c>
-      <c r="F45" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F45" s="5" t="n">
         <v>45557.68402777778</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>401671772</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2417,22 +2551,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25</v>
-      </c>
-      <c r="F46" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" s="5" t="n">
         <v>45557.68402777778</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>401671771</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2455,8 +2594,13 @@
       <c r="E47" t="n">
         <v>17</v>
       </c>
-      <c r="F47" s="4" t="n">
+      <c r="F47" s="5" t="n">
         <v>45557.84722222222</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>401671793</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2479,8 +2623,13 @@
       <c r="E48" t="n">
         <v>47</v>
       </c>
-      <c r="F48" s="4" t="n">
+      <c r="F48" s="5" t="n">
         <v>45558.8125</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>401671682</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2503,8 +2652,13 @@
       <c r="E49" t="n">
         <v>33</v>
       </c>
-      <c r="F49" s="4" t="n">
+      <c r="F49" s="5" t="n">
         <v>45558.84375</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>401671490</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2527,8 +2681,13 @@
       <c r="E50" t="n">
         <v>15</v>
       </c>
-      <c r="F50" s="4" t="n">
+      <c r="F50" s="5" t="n">
         <v>45561.84375</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>401671812</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2537,22 +2696,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="F51" s="5" t="n">
         <v>45564.54166666666</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>401671727</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2561,22 +2725,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33</v>
-      </c>
-      <c r="F52" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="F52" s="5" t="n">
         <v>45564.54166666666</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>401671871</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2585,22 +2754,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26</v>
-      </c>
-      <c r="F53" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F53" s="5" t="n">
         <v>45564.54166666666</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>401671643</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2609,22 +2783,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29</v>
-      </c>
-      <c r="F54" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F54" s="5" t="n">
         <v>45564.54166666666</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>401671867</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2633,22 +2812,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>24</v>
-      </c>
-      <c r="F55" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" s="5" t="n">
         <v>45564.54166666666</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>401671622</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2657,22 +2841,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>24</v>
-      </c>
-      <c r="F56" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F56" s="5" t="n">
         <v>45564.54166666666</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>401671740</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2681,22 +2870,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
-      </c>
-      <c r="F57" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="F57" s="5" t="n">
         <v>45564.54166666666</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>401671745</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2705,22 +2899,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="C58" t="n">
+        <v>20</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
         <v>24</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>27</v>
-      </c>
-      <c r="F58" s="4" t="n">
+      <c r="F58" s="5" t="n">
         <v>45564.54166666666</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>401671857</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2729,22 +2928,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
-      </c>
-      <c r="F59" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F59" s="5" t="n">
         <v>45564.67013888889</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>401671755</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2753,22 +2957,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14</v>
-      </c>
-      <c r="F60" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F60" s="5" t="n">
         <v>45564.67013888889</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>401671758</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2791,8 +3000,13 @@
       <c r="E61" t="n">
         <v>20</v>
       </c>
-      <c r="F61" s="4" t="n">
+      <c r="F61" s="5" t="n">
         <v>45564.68402777778</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>401671672</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2815,8 +3029,13 @@
       <c r="E62" t="n">
         <v>10</v>
       </c>
-      <c r="F62" s="4" t="n">
+      <c r="F62" s="5" t="n">
         <v>45564.68402777778</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>401671674</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2839,8 +3058,13 @@
       <c r="E63" t="n">
         <v>35</v>
       </c>
-      <c r="F63" s="4" t="n">
+      <c r="F63" s="5" t="n">
         <v>45564.84722222222</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>401671783</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2863,8 +3087,13 @@
       <c r="E64" t="n">
         <v>12</v>
       </c>
-      <c r="F64" s="4" t="n">
+      <c r="F64" s="5" t="n">
         <v>45565.8125</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>401671683</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2887,32 +3116,36 @@
       <c r="E65" t="n">
         <v>42</v>
       </c>
-      <c r="F65" s="4" t="n">
+      <c r="F65" s="5" t="n">
         <v>45565.84375</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>401671491</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TB</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>30</v>
+          <t>NYG</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>36</v>
-      </c>
-      <c r="F66" s="4" t="n">
-        <v>45568.84375</v>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>45593.84375</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>401671685</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2921,22 +3154,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>23</v>
-      </c>
-      <c r="F67" s="4" t="n">
-        <v>45571.39583333334</v>
+        <v>36</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>45568.84375</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>401671815</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2945,22 +3183,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37</v>
-      </c>
-      <c r="F68" s="4" t="n">
-        <v>45571.54166666666</v>
+        <v>23</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>45571.39583333334</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>401671804</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2969,22 +3212,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>23</v>
-      </c>
-      <c r="F69" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F69" s="5" t="n">
         <v>45571.54166666666</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>401671872</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2993,22 +3241,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
-      </c>
-      <c r="F70" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="F70" s="5" t="n">
         <v>45571.54166666666</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>401671626</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3017,22 +3270,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C71" t="n">
+        <v>15</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
         <v>10</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>36</v>
-      </c>
-      <c r="F71" s="4" t="n">
+      <c r="F71" s="5" t="n">
         <v>45571.54166666666</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>401671700</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3041,22 +3299,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>38</v>
-      </c>
-      <c r="F72" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="F72" s="5" t="n">
         <v>45571.54166666666</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>401671718</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3065,22 +3328,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34</v>
-      </c>
-      <c r="F73" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="F73" s="5" t="n">
         <v>45571.54166666666</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>401671633</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3089,22 +3357,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E74" t="n">
         <v>23</v>
       </c>
-      <c r="F74" s="4" t="n">
-        <v>45571.67013888889</v>
+      <c r="F74" s="5" t="n">
+        <v>45571.54166666666</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>401671859</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3127,8 +3400,13 @@
       <c r="E75" t="n">
         <v>34</v>
       </c>
-      <c r="F75" s="4" t="n">
+      <c r="F75" s="5" t="n">
         <v>45571.67013888889</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>401671747</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3137,7 +3415,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3145,14 +3423,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>19</v>
-      </c>
-      <c r="F76" s="4" t="n">
-        <v>45571.68402777778</v>
+        <v>23</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>45571.67013888889</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>401671756</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3161,22 +3444,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
-      </c>
-      <c r="F77" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F77" s="5" t="n">
         <v>45571.68402777778</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>401671679</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3185,22 +3473,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="C78" t="n">
+        <v>29</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
         <v>20</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>17</v>
-      </c>
-      <c r="F78" s="4" t="n">
-        <v>45571.84722222222</v>
+      <c r="F78" s="5" t="n">
+        <v>45571.68402777778</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>401671680</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3209,46 +3502,56 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26</v>
-      </c>
-      <c r="F79" s="4" t="n">
-        <v>45572.84375</v>
+        <v>17</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>45571.90625</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>401671784</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24</v>
-      </c>
-      <c r="F80" s="4" t="n">
-        <v>45575.84375</v>
+        <v>26</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>45572.84375</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>401671687</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3257,22 +3560,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35</v>
-      </c>
-      <c r="F81" s="4" t="n">
-        <v>45578.39583333334</v>
+        <v>24</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>45575.84375</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>401671819</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3281,22 +3589,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>27</v>
-      </c>
-      <c r="F82" s="4" t="n">
-        <v>45578.54166666666</v>
+        <v>35</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>45578.39583333334</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>401671802</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3319,8 +3632,13 @@
       <c r="E83" t="n">
         <v>34</v>
       </c>
-      <c r="F83" s="4" t="n">
+      <c r="F83" s="5" t="n">
         <v>45578.54166666666</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>401671722</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3343,8 +3661,13 @@
       <c r="E84" t="n">
         <v>17</v>
       </c>
-      <c r="F84" s="4" t="n">
+      <c r="F84" s="5" t="n">
         <v>45578.54166666666</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>401671820</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3367,8 +3690,13 @@
       <c r="E85" t="n">
         <v>21</v>
       </c>
-      <c r="F85" s="4" t="n">
+      <c r="F85" s="5" t="n">
         <v>45578.54166666666</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>401671619</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3377,22 +3705,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>30</v>
-      </c>
-      <c r="F86" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F86" s="5" t="n">
         <v>45578.54166666666</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>401671735</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3415,8 +3748,13 @@
       <c r="E87" t="n">
         <v>20</v>
       </c>
-      <c r="F87" s="4" t="n">
+      <c r="F87" s="5" t="n">
         <v>45578.54166666666</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>401671714</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -3425,22 +3763,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
-      </c>
-      <c r="F88" s="4" t="n">
-        <v>45578.67013888889</v>
+        <v>30</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>45578.54166666666</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>401671625</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -3463,8 +3806,13 @@
       <c r="E89" t="n">
         <v>16</v>
       </c>
-      <c r="F89" s="4" t="n">
+      <c r="F89" s="5" t="n">
         <v>45578.67013888889</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>401671655</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -3473,22 +3821,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
-      </c>
-      <c r="F90" s="4" t="n">
-        <v>45578.68402777778</v>
+        <v>13</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>45578.67013888889</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>401671657</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -3511,8 +3864,13 @@
       <c r="E91" t="n">
         <v>9</v>
       </c>
-      <c r="F91" s="4" t="n">
+      <c r="F91" s="5" t="n">
         <v>45578.68402777778</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>401671764</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -3521,22 +3879,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
-      </c>
-      <c r="F92" s="4" t="n">
-        <v>45578.84722222222</v>
+        <v>20</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>45578.68402777778</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>401671769</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -3545,34 +3908,56 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BUF</t>
-        </is>
+          <t>CIN</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>17</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NYJ</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="n">
-        <v>45579.84375</v>
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>7</v>
+      </c>
+      <c r="F93" s="5" t="n">
+        <v>45578.84722222222</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>401671791</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DEN</t>
-        </is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>23</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="n">
-        <v>45582.84375</v>
+          <t>NYJ</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>20</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>45579.84375</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>401671684</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3581,16 +3966,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NE</t>
-        </is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>33</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>JAX</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="n">
-        <v>45585.39583333334</v>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>10</v>
+      </c>
+      <c r="F95" s="5" t="n">
+        <v>45582.84375</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>401671816</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -3599,16 +3995,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CIN</t>
-        </is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>16</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="n">
-        <v>45585.54166666666</v>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>32</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>45585.39583333334</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>401671801</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -3617,16 +4024,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DET</t>
-        </is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>34</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="n">
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>14</v>
+      </c>
+      <c r="F97" s="5" t="n">
         <v>45585.54166666666</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>401671730</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -3635,16 +4053,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HOU</t>
-        </is>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>10</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="n">
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>34</v>
+      </c>
+      <c r="F98" s="5" t="n">
         <v>45585.54166666666</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>401671616</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -3653,16 +4082,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MIA</t>
-        </is>
+          <t>CIN</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>21</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="n">
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>14</v>
+      </c>
+      <c r="F99" s="5" t="n">
         <v>45585.54166666666</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>401671853</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -3671,16 +4111,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TEN</t>
-        </is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>22</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="n">
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>24</v>
+      </c>
+      <c r="F100" s="5" t="n">
         <v>45585.54166666666</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>401671644</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -3689,16 +4140,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PHI</t>
-        </is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>10</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NYG</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="n">
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>16</v>
+      </c>
+      <c r="F101" s="5" t="n">
         <v>45585.54166666666</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>401671864</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -3707,16 +4169,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SEA</t>
-        </is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>31</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="n">
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>29</v>
+      </c>
+      <c r="F102" s="5" t="n">
         <v>45585.54166666666</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>401671724</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -3725,16 +4198,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CAR</t>
-        </is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>28</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="n">
-        <v>45585.67013888889</v>
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" s="5" t="n">
+        <v>45585.54166666666</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>401671710</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -3746,13 +4230,24 @@
           <t>OAK</t>
         </is>
       </c>
+      <c r="C104" t="n">
+        <v>15</v>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>STL</t>
         </is>
       </c>
-      <c r="F104" s="4" t="n">
+      <c r="E104" t="n">
+        <v>20</v>
+      </c>
+      <c r="F104" s="5" t="n">
         <v>45585.67013888889</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>401671663</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -3761,16 +4256,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KC</t>
-        </is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>7</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="F105" s="4" t="n">
-        <v>45585.68402777778</v>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>40</v>
+      </c>
+      <c r="F105" s="5" t="n">
+        <v>45585.67013888889</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>401671640</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -3779,16 +4285,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NYJ</t>
-        </is>
+          <t>KC</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>28</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="n">
-        <v>45585.84722222222</v>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>18</v>
+      </c>
+      <c r="F106" s="5" t="n">
+        <v>45585.68402777778</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>401671777</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -3797,16 +4314,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BAL</t>
-        </is>
+          <t>NYJ</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>15</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>TB</t>
-        </is>
-      </c>
-      <c r="F107" s="4" t="n">
-        <v>45586.84375</v>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>37</v>
+      </c>
+      <c r="F107" s="5" t="n">
+        <v>45585.84722222222</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>401671785</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -3815,34 +4343,56 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SD</t>
-        </is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>41</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ARI</t>
-        </is>
-      </c>
-      <c r="F108" s="4" t="n">
-        <v>45586.875</v>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>31</v>
+      </c>
+      <c r="F108" s="5" t="n">
+        <v>45586.84375</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>401671695</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MIN</t>
-        </is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>15</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>STL</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="n">
-        <v>45589.84375</v>
+          <t>ARI</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>17</v>
+      </c>
+      <c r="F109" s="5" t="n">
+        <v>45586.875</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>401671699</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -3851,16 +4401,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ATL</t>
-        </is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>20</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>TB</t>
-        </is>
-      </c>
-      <c r="F110" s="4" t="n">
-        <v>45592.54166666666</v>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>30</v>
+      </c>
+      <c r="F110" s="5" t="n">
+        <v>45589.84375</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>401671817</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -3869,16 +4430,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CHI</t>
-        </is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>37</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="F111" s="4" t="n">
+          <t>CIN</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>17</v>
+      </c>
+      <c r="F111" s="5" t="n">
         <v>45592.54166666666</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>401671667</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -3887,16 +4459,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>IND</t>
-        </is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>24</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="F112" s="4" t="n">
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>29</v>
+      </c>
+      <c r="F112" s="5" t="n">
         <v>45592.54166666666</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>401671852</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -3905,16 +4488,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ARI</t>
-        </is>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>14</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="F113" s="4" t="n">
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>52</v>
+      </c>
+      <c r="F113" s="5" t="n">
         <v>45592.54166666666</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>401671720</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -3923,16 +4517,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GB</t>
-        </is>
+          <t>ARI</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>28</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>JAX</t>
-        </is>
-      </c>
-      <c r="F114" s="4" t="n">
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>27</v>
+      </c>
+      <c r="F114" s="5" t="n">
         <v>45592.54166666666</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>401671850</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -3944,13 +4549,24 @@
           <t>NYJ</t>
         </is>
       </c>
+      <c r="C115" t="n">
+        <v>22</v>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="F115" s="4" t="n">
+      <c r="E115" t="n">
+        <v>25</v>
+      </c>
+      <c r="F115" s="5" t="n">
         <v>45592.54166666666</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>401671618</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -3959,16 +4575,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TEN</t>
-        </is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>31</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="F116" s="4" t="n">
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>26</v>
+      </c>
+      <c r="F116" s="5" t="n">
         <v>45592.54166666666</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>401671739</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -3977,16 +4604,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BAL</t>
-        </is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>30</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="F117" s="4" t="n">
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>27</v>
+      </c>
+      <c r="F117" s="5" t="n">
         <v>45592.54166666666</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>401671707</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -3995,16 +4633,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BUF</t>
-        </is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>20</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="F118" s="4" t="n">
-        <v>45592.67013888889</v>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>23</v>
+      </c>
+      <c r="F118" s="5" t="n">
+        <v>45592.54166666666</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>401671856</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -4016,13 +4665,24 @@
           <t>NO</t>
         </is>
       </c>
+      <c r="C119" t="n">
+        <v>8</v>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="F119" s="4" t="n">
+      <c r="E119" t="n">
+        <v>26</v>
+      </c>
+      <c r="F119" s="5" t="n">
         <v>45592.67013888889</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>401671750</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -4031,16 +4691,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CAR</t>
-        </is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>31</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="F120" s="4" t="n">
-        <v>45592.68402777778</v>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>10</v>
+      </c>
+      <c r="F120" s="5" t="n">
+        <v>45592.67013888889</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>401671760</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -4049,16 +4720,27 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>KC</t>
-        </is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>14</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>OAK</t>
-        </is>
-      </c>
-      <c r="F121" s="4" t="n">
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>28</v>
+      </c>
+      <c r="F121" s="5" t="n">
         <v>45592.68402777778</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>401671600</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -4067,16 +4749,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PHI</t>
-        </is>
+          <t>KC</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>27</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>CIN</t>
-        </is>
-      </c>
-      <c r="F122" s="4" t="n">
+          <t>OAK</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>20</v>
+      </c>
+      <c r="F122" s="5" t="n">
         <v>45592.68402777778</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>401671671</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -4085,16 +4778,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DAL</t>
-        </is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>15</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="n">
-        <v>45592.84722222222</v>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>18</v>
+      </c>
+      <c r="F123" s="5" t="n">
+        <v>45592.68402777778</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>401671599</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -4103,16 +4807,27 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NYG</t>
-        </is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>24</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="n">
-        <v>45593.84375</v>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>30</v>
+      </c>
+      <c r="F124" s="5" t="n">
+        <v>45592.84722222222</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>401671795</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -4129,8 +4844,13 @@
           <t>NYJ</t>
         </is>
       </c>
-      <c r="F125" s="4" t="n">
+      <c r="F125" s="5" t="n">
         <v>45596.84375</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>401671809</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -4139,16 +4859,21 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="n">
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F126" s="5" t="n">
         <v>45599.54166666666</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>401671728</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -4157,16 +4882,21 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="n">
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="F127" s="5" t="n">
         <v>45599.54166666666</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>401671493</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -4175,16 +4905,21 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="n">
+          <t>CIN</t>
+        </is>
+      </c>
+      <c r="F128" s="5" t="n">
         <v>45599.54166666666</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>401671704</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -4193,16 +4928,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="F129" s="4" t="n">
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="F129" s="5" t="n">
         <v>45599.54166666666</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>401671629</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -4211,16 +4951,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="F130" s="4" t="n">
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="F130" s="5" t="n">
         <v>45599.54166666666</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>401671822</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -4229,16 +4974,21 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>TEN</t>
-        </is>
-      </c>
-      <c r="F131" s="4" t="n">
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="F131" s="5" t="n">
         <v>45599.54166666666</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>401671711</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -4247,16 +4997,21 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>CIN</t>
-        </is>
-      </c>
-      <c r="F132" s="4" t="n">
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="F132" s="5" t="n">
         <v>45599.54166666666</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>401671650</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -4265,16 +5020,21 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="F133" s="4" t="n">
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="F133" s="5" t="n">
         <v>45599.54166666666</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>401671623</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -4283,16 +5043,21 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NYG</t>
-        </is>
-      </c>
-      <c r="F134" s="4" t="n">
-        <v>45599.54166666666</v>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="F134" s="5" t="n">
+        <v>45599.67013888889</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>401671797</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -4309,8 +5074,13 @@
           <t>ARI</t>
         </is>
       </c>
-      <c r="F135" s="4" t="n">
+      <c r="F135" s="5" t="n">
         <v>45599.67013888889</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>401671661</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -4327,8 +5097,13 @@
           <t>GB</t>
         </is>
       </c>
-      <c r="F136" s="4" t="n">
+      <c r="F136" s="5" t="n">
         <v>45599.68402777778</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>401671767</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -4345,8 +5120,13 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="F137" s="4" t="n">
+      <c r="F137" s="5" t="n">
         <v>45599.68402777778</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>401671776</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -4355,16 +5135,21 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="F138" s="4" t="n">
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="F138" s="5" t="n">
         <v>45599.84722222222</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>401671647</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -4381,8 +5166,13 @@
           <t>KC</t>
         </is>
       </c>
-      <c r="F139" s="4" t="n">
+      <c r="F139" s="5" t="n">
         <v>45600.84375</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>401671688</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -4399,8 +5189,13 @@
           <t>BAL</t>
         </is>
       </c>
-      <c r="F140" s="4" t="n">
+      <c r="F140" s="5" t="n">
         <v>45603.84375</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>401671810</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -4417,8 +5212,13 @@
           <t>CAR</t>
         </is>
       </c>
-      <c r="F141" s="4" t="n">
+      <c r="F141" s="5" t="n">
         <v>45606.39583333334</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>401671803</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -4427,16 +5227,21 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F142" s="4" t="n">
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="F142" s="5" t="n">
         <v>45606.54166666666</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>401671873</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -4453,8 +5258,13 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="F143" s="4" t="n">
+      <c r="F143" s="5" t="n">
         <v>45606.54166666666</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>401671863</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -4471,8 +5281,13 @@
           <t>KC</t>
         </is>
       </c>
-      <c r="F144" s="4" t="n">
+      <c r="F144" s="5" t="n">
         <v>45606.54166666666</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>401671637</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -4481,16 +5296,21 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>JAX</t>
-        </is>
-      </c>
-      <c r="F145" s="4" t="n">
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F145" s="5" t="n">
         <v>45606.54166666666</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>401671733</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -4499,16 +5319,21 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="F146" s="4" t="n">
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="F146" s="5" t="n">
         <v>45606.54166666666</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>401671742</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -4525,8 +5350,13 @@
           <t>WAS</t>
         </is>
       </c>
-      <c r="F147" s="4" t="n">
+      <c r="F147" s="5" t="n">
         <v>45606.54166666666</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>401671641</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -4535,16 +5365,21 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>TB</t>
-        </is>
-      </c>
-      <c r="F148" s="4" t="n">
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="F148" s="5" t="n">
         <v>45606.54166666666</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>401671708</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -4561,8 +5396,13 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="F149" s="4" t="n">
+      <c r="F149" s="5" t="n">
         <v>45606.67013888889</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>401671751</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -4571,16 +5411,21 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ARI</t>
-        </is>
-      </c>
-      <c r="F150" s="4" t="n">
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="F150" s="5" t="n">
         <v>45606.68402777778</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>401671676</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -4589,16 +5434,21 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="F151" s="4" t="n">
+          <t>ARI</t>
+        </is>
+      </c>
+      <c r="F151" s="5" t="n">
         <v>45606.68402777778</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>401671678</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -4615,8 +5465,13 @@
           <t>HOU</t>
         </is>
       </c>
-      <c r="F152" s="4" t="n">
+      <c r="F152" s="5" t="n">
         <v>45606.84722222222</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>401671787</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -4633,8 +5488,13 @@
           <t>STL</t>
         </is>
       </c>
-      <c r="F153" s="4" t="n">
+      <c r="F153" s="5" t="n">
         <v>45607.84375</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>401671693</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -4651,8 +5511,13 @@
           <t>PHI</t>
         </is>
       </c>
-      <c r="F154" s="4" t="n">
+      <c r="F154" s="5" t="n">
         <v>45610.84375</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>401671813</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -4661,16 +5526,21 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F155" s="4" t="n">
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="F155" s="5" t="n">
         <v>45613.54166666666</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>401671869</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -4679,16 +5549,21 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="F156" s="4" t="n">
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="F156" s="5" t="n">
         <v>45613.54166666666</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>401671642</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -4697,16 +5572,21 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="F157" s="4" t="n">
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="F157" s="5" t="n">
         <v>45613.54166666666</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>401671824</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -4715,16 +5595,21 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>TEN</t>
-        </is>
-      </c>
-      <c r="F158" s="4" t="n">
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="F158" s="5" t="n">
         <v>45613.54166666666</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>401671851</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -4733,16 +5618,21 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="F159" s="4" t="n">
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F159" s="5" t="n">
         <v>45613.54166666666</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>401671701</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -4751,16 +5641,21 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NE</t>
-        </is>
-      </c>
-      <c r="F160" s="4" t="n">
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F160" s="5" t="n">
         <v>45613.54166666666</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>401671746</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -4777,8 +5672,13 @@
           <t>PIT</t>
         </is>
       </c>
-      <c r="F161" s="4" t="n">
+      <c r="F161" s="5" t="n">
         <v>45613.54166666666</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>401671630</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -4795,8 +5695,13 @@
           <t>DEN</t>
         </is>
       </c>
-      <c r="F162" s="4" t="n">
+      <c r="F162" s="5" t="n">
         <v>45613.67013888889</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>401671748</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -4813,8 +5718,13 @@
           <t>SF</t>
         </is>
       </c>
-      <c r="F163" s="4" t="n">
+      <c r="F163" s="5" t="n">
         <v>45613.67013888889</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>401671757</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -4823,16 +5733,21 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="F164" s="4" t="n">
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="F164" s="5" t="n">
         <v>45613.68402777778</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>401671665</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -4841,16 +5756,21 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="F165" s="4" t="n">
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="F165" s="5" t="n">
         <v>45613.68402777778</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>401671675</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -4867,8 +5787,13 @@
           <t>NYJ</t>
         </is>
       </c>
-      <c r="F166" s="4" t="n">
+      <c r="F166" s="5" t="n">
         <v>45613.84722222222</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>401671782</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -4885,8 +5810,13 @@
           <t>DAL</t>
         </is>
       </c>
-      <c r="F167" s="4" t="n">
+      <c r="F167" s="5" t="n">
         <v>45614.84375</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>401671694</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -4903,8 +5833,13 @@
           <t>CLE</t>
         </is>
       </c>
-      <c r="F168" s="4" t="n">
+      <c r="F168" s="5" t="n">
         <v>45617.84375</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>401671875</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -4913,16 +5848,21 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="F169" s="4" t="n">
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="F169" s="5" t="n">
         <v>45620.54166666666</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>401671870</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -4939,8 +5879,13 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="F170" s="4" t="n">
+      <c r="F170" s="5" t="n">
         <v>45620.54166666666</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>401671866</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -4949,16 +5894,21 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="F171" s="4" t="n">
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="F171" s="5" t="n">
         <v>45620.54166666666</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>401671847</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -4967,16 +5917,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="F172" s="4" t="n">
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="F172" s="5" t="n">
         <v>45620.54166666666</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>401671638</t>
+        </is>
       </c>
     </row>
     <row r="173">
@@ -4985,16 +5940,21 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="F173" s="4" t="n">
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="F173" s="5" t="n">
         <v>45620.54166666666</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>401671715</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -5003,16 +5963,21 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="F174" s="4" t="n">
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="F174" s="5" t="n">
         <v>45620.54166666666</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>401671651</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -5021,16 +5986,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>NYG</t>
-        </is>
-      </c>
-      <c r="F175" s="4" t="n">
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="F175" s="5" t="n">
         <v>45620.54166666666</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>401671858</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -5047,8 +6017,13 @@
           <t>OAK</t>
         </is>
       </c>
-      <c r="F176" s="4" t="n">
+      <c r="F176" s="5" t="n">
         <v>45620.67013888889</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>401671656</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -5057,16 +6032,21 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="F177" s="4" t="n">
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="F177" s="5" t="n">
         <v>45620.68402777778</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>401671768</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -5075,16 +6055,21 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="F178" s="4" t="n">
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="F178" s="5" t="n">
         <v>45620.68402777778</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>401671775</t>
+        </is>
       </c>
     </row>
     <row r="179">
@@ -5101,8 +6086,13 @@
           <t>STL</t>
         </is>
       </c>
-      <c r="F179" s="4" t="n">
+      <c r="F179" s="5" t="n">
         <v>45620.84722222222</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>401671794</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -5119,8 +6109,13 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="F180" s="4" t="n">
+      <c r="F180" s="5" t="n">
         <v>45621.84375</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>401671689</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -5137,8 +6132,13 @@
           <t>DET</t>
         </is>
       </c>
-      <c r="F181" s="4" t="n">
+      <c r="F181" s="5" t="n">
         <v>45624.52083333334</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>401671492</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -5155,8 +6155,13 @@
           <t>DAL</t>
         </is>
       </c>
-      <c r="F182" s="4" t="n">
+      <c r="F182" s="5" t="n">
         <v>45624.6875</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>401671779</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -5173,8 +6178,13 @@
           <t>GB</t>
         </is>
       </c>
-      <c r="F183" s="4" t="n">
+      <c r="F183" s="5" t="n">
         <v>45624.84722222222</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>401671798</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -5191,8 +6201,13 @@
           <t>KC</t>
         </is>
       </c>
-      <c r="F184" s="4" t="n">
+      <c r="F184" s="5" t="n">
         <v>45625.625</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>401671806</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -5201,16 +6216,21 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>NE</t>
-        </is>
-      </c>
-      <c r="F185" s="4" t="n">
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F185" s="5" t="n">
         <v>45627.54166666666</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>401671649</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -5219,16 +6239,21 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="F186" s="4" t="n">
+          <t>CIN</t>
+        </is>
+      </c>
+      <c r="F186" s="5" t="n">
         <v>45627.54166666666</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>401671627</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -5237,16 +6262,21 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>JAX</t>
-        </is>
-      </c>
-      <c r="F187" s="4" t="n">
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="F187" s="5" t="n">
         <v>45627.54166666666</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>401671726</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -5255,16 +6285,21 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="F188" s="4" t="n">
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F188" s="5" t="n">
         <v>45627.54166666666</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>401671620</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -5273,16 +6308,21 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>CIN</t>
-        </is>
-      </c>
-      <c r="F189" s="4" t="n">
+          <t>NYJ</t>
+        </is>
+      </c>
+      <c r="F189" s="5" t="n">
         <v>45627.54166666666</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>401671703</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -5291,16 +6331,21 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="F190" s="4" t="n">
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="F190" s="5" t="n">
         <v>45627.54166666666</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>401671743</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -5309,16 +6354,21 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>NYJ</t>
-        </is>
-      </c>
-      <c r="F191" s="4" t="n">
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="F191" s="5" t="n">
         <v>45627.54166666666</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>401671705</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -5335,8 +6385,13 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="F192" s="4" t="n">
+      <c r="F192" s="5" t="n">
         <v>45627.67013888889</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>401671753</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -5353,8 +6408,13 @@
           <t>CAR</t>
         </is>
       </c>
-      <c r="F193" s="4" t="n">
+      <c r="F193" s="5" t="n">
         <v>45627.67013888889</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>401671752</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -5371,8 +6431,13 @@
           <t>BAL</t>
         </is>
       </c>
-      <c r="F194" s="4" t="n">
+      <c r="F194" s="5" t="n">
         <v>45627.68402777778</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>401671666</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -5389,8 +6454,13 @@
           <t>BUF</t>
         </is>
       </c>
-      <c r="F195" s="4" t="n">
+      <c r="F195" s="5" t="n">
         <v>45627.84722222222</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>401671781</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -5407,8 +6477,13 @@
           <t>DEN</t>
         </is>
       </c>
-      <c r="F196" s="4" t="n">
+      <c r="F196" s="5" t="n">
         <v>45628.84375</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>401671686</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -5425,8 +6500,13 @@
           <t>DET</t>
         </is>
       </c>
-      <c r="F197" s="4" t="n">
+      <c r="F197" s="5" t="n">
         <v>45631.84375</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>401671814</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -5435,16 +6515,21 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="F198" s="4" t="n">
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="F198" s="5" t="n">
         <v>45634.54166666666</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>401671821</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -5453,16 +6538,21 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="F199" s="4" t="n">
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="F199" s="5" t="n">
         <v>45634.54166666666</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>401671848</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -5471,16 +6561,21 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="F200" s="4" t="n">
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="F200" s="5" t="n">
         <v>45634.54166666666</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>401671648</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -5489,16 +6584,21 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>TEN</t>
-        </is>
-      </c>
-      <c r="F201" s="4" t="n">
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="F201" s="5" t="n">
         <v>45634.54166666666</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>401671601</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -5507,16 +6607,21 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>NYG</t>
-        </is>
-      </c>
-      <c r="F202" s="4" t="n">
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="F202" s="5" t="n">
         <v>45634.54166666666</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>401671713</t>
+        </is>
       </c>
     </row>
     <row r="203">
@@ -5525,16 +6630,21 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="F203" s="4" t="n">
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="F203" s="5" t="n">
         <v>45634.54166666666</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>401671631</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -5551,8 +6661,13 @@
           <t>TB</t>
         </is>
       </c>
-      <c r="F204" s="4" t="n">
+      <c r="F204" s="5" t="n">
         <v>45634.54166666666</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>401671654</t>
+        </is>
       </c>
     </row>
     <row r="205">
@@ -5569,8 +6684,13 @@
           <t>ARI</t>
         </is>
       </c>
-      <c r="F205" s="4" t="n">
+      <c r="F205" s="5" t="n">
         <v>45634.67013888889</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>401671660</t>
+        </is>
       </c>
     </row>
     <row r="206">
@@ -5587,8 +6707,13 @@
           <t>STL</t>
         </is>
       </c>
-      <c r="F206" s="4" t="n">
+      <c r="F206" s="5" t="n">
         <v>45634.68402777778</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>401671773</t>
+        </is>
       </c>
     </row>
     <row r="207">
@@ -5605,8 +6730,13 @@
           <t>SF</t>
         </is>
       </c>
-      <c r="F207" s="4" t="n">
+      <c r="F207" s="5" t="n">
         <v>45634.68402777778</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>401671774</t>
+        </is>
       </c>
     </row>
     <row r="208">
@@ -5623,8 +6753,13 @@
           <t>KC</t>
         </is>
       </c>
-      <c r="F208" s="4" t="n">
+      <c r="F208" s="5" t="n">
         <v>45634.84722222222</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>401671788</t>
+        </is>
       </c>
     </row>
     <row r="209">
@@ -5641,8 +6776,13 @@
           <t>DAL</t>
         </is>
       </c>
-      <c r="F209" s="4" t="n">
+      <c r="F209" s="5" t="n">
         <v>45635.84375</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>401671690</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -5659,8 +6799,13 @@
           <t>SF</t>
         </is>
       </c>
-      <c r="F210" s="4" t="n">
+      <c r="F210" s="5" t="n">
         <v>45638.84375</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>401671818</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -5669,16 +6814,21 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>TEN</t>
-        </is>
-      </c>
-      <c r="F211" s="4" t="n">
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="F211" s="5" t="n">
         <v>45641.54166666666</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>401671854</t>
+        </is>
       </c>
     </row>
     <row r="212">
@@ -5687,16 +6837,21 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="F212" s="4" t="n">
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="F212" s="5" t="n">
         <v>45641.54166666666</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>401671825</t>
+        </is>
       </c>
     </row>
     <row r="213">
@@ -5705,16 +6860,21 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="F213" s="4" t="n">
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F213" s="5" t="n">
         <v>45641.54166666666</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>401671737</t>
+        </is>
       </c>
     </row>
     <row r="214">
@@ -5723,16 +6883,21 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="F214" s="4" t="n">
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="F214" s="5" t="n">
         <v>45641.54166666666</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>401671639</t>
+        </is>
       </c>
     </row>
     <row r="215">
@@ -5741,16 +6906,21 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>JAX</t>
-        </is>
-      </c>
-      <c r="F215" s="4" t="n">
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="F215" s="5" t="n">
         <v>45641.54166666666</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>401671731</t>
+        </is>
       </c>
     </row>
     <row r="216">
@@ -5759,16 +6929,21 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>NYG</t>
-        </is>
-      </c>
-      <c r="F216" s="4" t="n">
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="F216" s="5" t="n">
         <v>45641.54166666666</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>401671706</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -5777,16 +6952,21 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F217" s="4" t="n">
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="F217" s="5" t="n">
         <v>45641.54166666666</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>401671860</t>
+        </is>
       </c>
     </row>
     <row r="218">
@@ -5795,16 +6975,21 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="F218" s="4" t="n">
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="F218" s="5" t="n">
         <v>45641.68402777778</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>401671669</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -5813,16 +6998,21 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="F219" s="4" t="n">
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="F219" s="5" t="n">
         <v>45641.68402777778</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>401671681</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -5831,16 +7021,21 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>ARI</t>
-        </is>
-      </c>
-      <c r="F220" s="4" t="n">
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="F220" s="5" t="n">
         <v>45641.68402777778</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>401671766</t>
+        </is>
       </c>
     </row>
     <row r="221">
@@ -5849,16 +7044,21 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="F221" s="4" t="n">
+          <t>ARI</t>
+        </is>
+      </c>
+      <c r="F221" s="5" t="n">
         <v>45641.68402777778</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>401671677</t>
+        </is>
       </c>
     </row>
     <row r="222">
@@ -5875,8 +7075,13 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="F222" s="4" t="n">
+      <c r="F222" s="5" t="n">
         <v>45641.68402777778</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>401671762</t>
+        </is>
       </c>
     </row>
     <row r="223">
@@ -5893,8 +7098,13 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="F223" s="4" t="n">
+      <c r="F223" s="5" t="n">
         <v>45641.84722222222</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>401671796</t>
+        </is>
       </c>
     </row>
     <row r="224">
@@ -5911,8 +7121,13 @@
           <t>MIN</t>
         </is>
       </c>
-      <c r="F224" s="4" t="n">
+      <c r="F224" s="5" t="n">
         <v>45642.83333333334</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>401671489</t>
+        </is>
       </c>
     </row>
     <row r="225">
@@ -5929,8 +7144,13 @@
           <t>OAK</t>
         </is>
       </c>
-      <c r="F225" s="4" t="n">
+      <c r="F225" s="5" t="n">
         <v>45642.85416666666</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>401671697</t>
+        </is>
       </c>
     </row>
     <row r="226">
@@ -5947,8 +7167,13 @@
           <t>CIN</t>
         </is>
       </c>
-      <c r="F226" s="4" t="n">
+      <c r="F226" s="5" t="n">
         <v>45645.84375</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>401671811</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -5965,8 +7190,13 @@
           <t>KC</t>
         </is>
       </c>
-      <c r="F227" s="4" t="n">
+      <c r="F227" s="5" t="n">
         <v>45647.54166666666</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>401671780</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -5983,8 +7213,13 @@
           <t>BAL</t>
         </is>
       </c>
-      <c r="F228" s="4" t="n">
+      <c r="F228" s="5" t="n">
         <v>45647.6875</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>401671778</t>
+        </is>
       </c>
     </row>
     <row r="229">
@@ -5993,16 +7228,21 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="F229" s="4" t="n">
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F229" s="5" t="n">
         <v>45648.54166666666</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>401671729</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -6011,16 +7251,21 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="F230" s="4" t="n">
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="F230" s="5" t="n">
         <v>45648.54166666666</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>401671494</t>
+        </is>
       </c>
     </row>
     <row r="231">
@@ -6029,16 +7274,21 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="F231" s="4" t="n">
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="F231" s="5" t="n">
         <v>45648.54166666666</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>401671868</t>
+        </is>
       </c>
     </row>
     <row r="232">
@@ -6047,16 +7297,21 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="F232" s="4" t="n">
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F232" s="5" t="n">
         <v>45648.54166666666</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>401671862</t>
+        </is>
       </c>
     </row>
     <row r="233">
@@ -6065,16 +7320,21 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="F233" s="4" t="n">
+          <t>NYJ</t>
+        </is>
+      </c>
+      <c r="F233" s="5" t="n">
         <v>45648.54166666666</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>401671621</t>
+        </is>
       </c>
     </row>
     <row r="234">
@@ -6091,8 +7351,13 @@
           <t>WAS</t>
         </is>
       </c>
-      <c r="F234" s="4" t="n">
+      <c r="F234" s="5" t="n">
         <v>45648.54166666666</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>401671717</t>
+        </is>
       </c>
     </row>
     <row r="235">
@@ -6101,16 +7366,21 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>NYJ</t>
-        </is>
-      </c>
-      <c r="F235" s="4" t="n">
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="F235" s="5" t="n">
         <v>45648.54166666666</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>401671732</t>
+        </is>
       </c>
     </row>
     <row r="236">
@@ -6127,8 +7397,13 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="F236" s="4" t="n">
+      <c r="F236" s="5" t="n">
         <v>45648.67013888889</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>401671749</t>
+        </is>
       </c>
     </row>
     <row r="237">
@@ -6145,8 +7420,13 @@
           <t>SEA</t>
         </is>
       </c>
-      <c r="F237" s="4" t="n">
+      <c r="F237" s="5" t="n">
         <v>45648.67013888889</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>401671759</t>
+        </is>
       </c>
     </row>
     <row r="238">
@@ -6163,8 +7443,13 @@
           <t>OAK</t>
         </is>
       </c>
-      <c r="F238" s="4" t="n">
+      <c r="F238" s="5" t="n">
         <v>45648.68402777778</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>401671673</t>
+        </is>
       </c>
     </row>
     <row r="239">
@@ -6181,8 +7466,13 @@
           <t>MIA</t>
         </is>
       </c>
-      <c r="F239" s="4" t="n">
+      <c r="F239" s="5" t="n">
         <v>45648.68402777778</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>401671874</t>
+        </is>
       </c>
     </row>
     <row r="240">
@@ -6199,8 +7489,13 @@
           <t>DAL</t>
         </is>
       </c>
-      <c r="F240" s="4" t="n">
+      <c r="F240" s="5" t="n">
         <v>45648.84722222222</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>401671790</t>
+        </is>
       </c>
     </row>
     <row r="241">
@@ -6217,8 +7512,13 @@
           <t>GB</t>
         </is>
       </c>
-      <c r="F241" s="4" t="n">
+      <c r="F241" s="5" t="n">
         <v>45649.84375</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>401671692</t>
+        </is>
       </c>
     </row>
     <row r="242">
@@ -6235,8 +7535,13 @@
           <t>PIT</t>
         </is>
       </c>
-      <c r="F242" s="4" t="n">
+      <c r="F242" s="5" t="n">
         <v>45651.54166666666</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>401671799</t>
+        </is>
       </c>
     </row>
     <row r="243">
@@ -6253,8 +7558,13 @@
           <t>HOU</t>
         </is>
       </c>
-      <c r="F243" s="4" t="n">
+      <c r="F243" s="5" t="n">
         <v>45651.6875</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>401671800</t>
+        </is>
       </c>
     </row>
     <row r="244">
@@ -6271,8 +7581,13 @@
           <t>CHI</t>
         </is>
       </c>
-      <c r="F244" s="4" t="n">
+      <c r="F244" s="5" t="n">
         <v>45652.84375</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>401671876</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -6281,16 +7596,21 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="F245" s="4" t="n">
-        <v>45655.54166666666</v>
+          <t>CIN</t>
+        </is>
+      </c>
+      <c r="F245" s="5" t="n">
+        <v>45655</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>401671835</t>
+        </is>
       </c>
     </row>
     <row r="246">
@@ -6299,16 +7619,21 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>TB</t>
-        </is>
-      </c>
-      <c r="F246" s="4" t="n">
-        <v>45655.54166666666</v>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="F246" s="5" t="n">
+        <v>45655</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>401671829</t>
+        </is>
       </c>
     </row>
     <row r="247">
@@ -6317,16 +7642,21 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>NYG</t>
-        </is>
-      </c>
-      <c r="F247" s="4" t="n">
-        <v>45655.54166666666</v>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F247" s="5" t="n">
+        <v>45655</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>401671832</t>
+        </is>
       </c>
     </row>
     <row r="248">
@@ -6335,16 +7665,21 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>STL</t>
-        </is>
-      </c>
-      <c r="F248" s="4" t="n">
-        <v>45655.54166666666</v>
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="F248" s="5" t="n">
+        <v>45655</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>401671846</t>
+        </is>
       </c>
     </row>
     <row r="249">
@@ -6353,16 +7688,21 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>CIN</t>
-        </is>
-      </c>
-      <c r="F249" s="4" t="n">
-        <v>45655.54166666666</v>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="F249" s="5" t="n">
+        <v>45655</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>401671842</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -6371,16 +7711,21 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="F250" s="4" t="n">
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="F250" s="5" t="n">
         <v>45655.54166666666</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>401671495</t>
+        </is>
       </c>
     </row>
     <row r="251">
@@ -6389,16 +7734,21 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="F251" s="4" t="n">
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="F251" s="5" t="n">
         <v>45655.54166666666</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>401671725</t>
+        </is>
       </c>
     </row>
     <row r="252">
@@ -6407,16 +7757,21 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>JAX</t>
-        </is>
-      </c>
-      <c r="F252" s="4" t="n">
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F252" s="5" t="n">
         <v>45655.54166666666</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>401671738</t>
+        </is>
       </c>
     </row>
     <row r="253">
@@ -6425,16 +7780,21 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F253" s="4" t="n">
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="F253" s="5" t="n">
         <v>45655.54166666666</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>401671653</t>
+        </is>
       </c>
     </row>
     <row r="254">
@@ -6443,16 +7803,21 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>NE</t>
-        </is>
-      </c>
-      <c r="F254" s="4" t="n">
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="F254" s="5" t="n">
         <v>45655.54166666666</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>401671634</t>
+        </is>
       </c>
     </row>
     <row r="255">
@@ -6469,8 +7834,13 @@
           <t>PHI</t>
         </is>
       </c>
-      <c r="F255" s="4" t="n">
+      <c r="F255" s="5" t="n">
         <v>45655.68402777778</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>401671765</t>
+        </is>
       </c>
     </row>
     <row r="256">
@@ -6487,8 +7857,13 @@
           <t>CLE</t>
         </is>
       </c>
-      <c r="F256" s="4" t="n">
+      <c r="F256" s="5" t="n">
         <v>45655.84722222222</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>401671877</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -6505,8 +7880,13 @@
           <t>SF</t>
         </is>
       </c>
-      <c r="F257" s="4" t="n">
+      <c r="F257" s="5" t="n">
         <v>45656.84375</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>401671698</t>
+        </is>
       </c>
     </row>
     <row r="258">
@@ -6515,16 +7895,21 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>NE</t>
-        </is>
-      </c>
-      <c r="F258" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F258" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>401671827</t>
+        </is>
       </c>
     </row>
     <row r="259">
@@ -6533,16 +7918,21 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="F259" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="F259" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>401671840</t>
+        </is>
       </c>
     </row>
     <row r="260">
@@ -6551,16 +7941,21 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="F260" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="F260" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>401671838</t>
+        </is>
       </c>
     </row>
     <row r="261">
@@ -6569,16 +7964,21 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="F261" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="F261" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>401671843</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -6587,16 +7987,21 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="F262" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="F262" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>401671844</t>
+        </is>
       </c>
     </row>
     <row r="263">
@@ -6613,8 +8018,13 @@
           <t>TEN</t>
         </is>
       </c>
-      <c r="F263" s="4" t="n">
-        <v>45662.54166666666</v>
+      <c r="F263" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>401671826</t>
+        </is>
       </c>
     </row>
     <row r="264">
@@ -6631,8 +8041,13 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="F264" s="4" t="n">
-        <v>45662.54166666666</v>
+      <c r="F264" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>401671837</t>
+        </is>
       </c>
     </row>
     <row r="265">
@@ -6641,16 +8056,21 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="F265" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>OAK</t>
+        </is>
+      </c>
+      <c r="F265" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>401671839</t>
+        </is>
       </c>
     </row>
     <row r="266">
@@ -6659,16 +8079,21 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>NYJ</t>
-        </is>
-      </c>
-      <c r="F266" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="F266" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>401671830</t>
+        </is>
       </c>
     </row>
     <row r="267">
@@ -6677,16 +8102,21 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="F267" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F267" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>401671831</t>
+        </is>
       </c>
     </row>
     <row r="268">
@@ -6695,16 +8125,21 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>TB</t>
-        </is>
-      </c>
-      <c r="F268" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>NYJ</t>
+        </is>
+      </c>
+      <c r="F268" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>401671833</t>
+        </is>
       </c>
     </row>
     <row r="269">
@@ -6721,8 +8156,13 @@
           <t>PHI</t>
         </is>
       </c>
-      <c r="F269" s="4" t="n">
-        <v>45662.54166666666</v>
+      <c r="F269" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>401671841</t>
+        </is>
       </c>
     </row>
     <row r="270">
@@ -6731,16 +8171,21 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>OAK</t>
-        </is>
-      </c>
-      <c r="F270" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>ARI</t>
+        </is>
+      </c>
+      <c r="F270" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>401671845</t>
+        </is>
       </c>
     </row>
     <row r="271">
@@ -6749,16 +8194,21 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>STL</t>
-        </is>
-      </c>
-      <c r="F271" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="F271" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>401671836</t>
+        </is>
       </c>
     </row>
     <row r="272">
@@ -6767,16 +8217,21 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>ARI</t>
-        </is>
-      </c>
-      <c r="F272" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="F272" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>401671828</t>
+        </is>
       </c>
     </row>
     <row r="273">
@@ -6785,20 +8240,79 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="F273" s="4" t="n">
-        <v>45662.54166666666</v>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="F273" s="5" t="n">
+        <v>45662</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>401671834</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col width="34.6640625" customWidth="1" style="3" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Build Date</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>45593.44816644301</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NFLSourceESPN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Season</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>